--- a/ICP6/Comparision.xlsx
+++ b/ICP6/Comparision.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sridevi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\Desktop\Exam\exam\DEEP_LEARNING\ICP6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20103F84-C0BA-4DC9-B62B-CD04FF9B560E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" xr2:uid="{80EF182D-954D-444E-B67C-C1CDC641CA28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>MNSIT</t>
   </si>
@@ -40,12 +39,27 @@
   </si>
   <si>
     <t>Adagrad</t>
+  </si>
+  <si>
+    <t>DATA SET</t>
+  </si>
+  <si>
+    <t>OPTIMIZER</t>
+  </si>
+  <si>
+    <t>ACCURACY</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>FILTER-SIZE &amp; FINAL LAYER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,16 +404,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA0BC44-EABD-4F9B-BA8A-1D078F9F4116}">
-  <dimension ref="A4:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -416,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -433,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -450,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
